--- a/Paratec/detalle solares capacidad.xlsx
+++ b/Paratec/detalle solares capacidad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Switch UH\paratec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicoquintero/Documents/Investigacion andes-EDF/Switch/Sin título/Paratec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB7A6DA2-5A13-4725-96D3-B348D50C97AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DD7C8A-EC46-8847-9157-1F45CCEE1D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20230104_102811_excel_document" sheetId="2" r:id="rId1"/>
@@ -238,8 +238,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -803,9 +803,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -831,6 +828,9 @@
     </xf>
     <xf numFmtId="16" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -892,7 +892,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1180,2167 +1180,2182 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="1.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="1.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:27">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:27">
+      <c r="A2" s="12"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="16">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="36" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:27" ht="39">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="T5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="U5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="V5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W5" s="5" t="s">
+      <c r="W5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="X5" s="5" t="s">
+      <c r="X5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Y5" s="5" t="s">
+      <c r="Y5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="4"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="3"/>
     </row>
-    <row r="6" spans="1:27" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:27" ht="27">
+      <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>9.8000000000000007</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>4</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
-        <v>30</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>30</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7">
         <v>9</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <v>9</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8">
-        <v>0</v>
-      </c>
-      <c r="N6" s="8">
-        <v>0</v>
-      </c>
-      <c r="O6" s="8">
-        <v>0</v>
-      </c>
-      <c r="P6" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>0</v>
-      </c>
-      <c r="R6" s="8">
+      <c r="L6" s="7"/>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>0</v>
+      </c>
+      <c r="R6" s="7">
         <v>2.94</v>
       </c>
-      <c r="S6" s="8">
+      <c r="S6" s="7">
         <v>0.06</v>
       </c>
-      <c r="T6" s="8" t="s">
+      <c r="T6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="U6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="V6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="W6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="X6" s="8" t="s">
+      <c r="U6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="X6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Y6" s="10">
+      <c r="Y6" s="9">
         <v>42981</v>
       </c>
-      <c r="Z6" s="7" t="s">
+      <c r="Z6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AA6" s="3"/>
+      <c r="AA6" s="2"/>
     </row>
-    <row r="7" spans="1:27" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:27" ht="27">
+      <c r="A7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>8.06</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>4</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8">
-        <v>30</v>
-      </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8">
+      <c r="F7" s="7"/>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>30</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7">
         <v>7.5</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>7.5</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8">
-        <v>0</v>
-      </c>
-      <c r="N7" s="8">
-        <v>0</v>
-      </c>
-      <c r="O7" s="8">
-        <v>0</v>
-      </c>
-      <c r="P7" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>0</v>
-      </c>
-      <c r="R7" s="8">
-        <v>0</v>
-      </c>
-      <c r="S7" s="8">
-        <v>0</v>
-      </c>
-      <c r="T7" s="8" t="s">
+      <c r="L7" s="7"/>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>0</v>
+      </c>
+      <c r="R7" s="7">
+        <v>0</v>
+      </c>
+      <c r="S7" s="7">
+        <v>0</v>
+      </c>
+      <c r="T7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="U7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="V7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="W7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="X7" s="8" t="s">
+      <c r="U7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="X7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Y7" s="10">
+      <c r="Y7" s="9">
         <v>43499</v>
       </c>
-      <c r="Z7" s="7" t="s">
+      <c r="Z7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AA7" s="3"/>
+      <c r="AA7" s="2"/>
     </row>
-    <row r="8" spans="1:27" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:27" ht="27">
+      <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>1</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>9.9</v>
       </c>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8">
-        <v>0</v>
-      </c>
-      <c r="N8" s="8">
-        <v>0</v>
-      </c>
-      <c r="O8" s="8">
-        <v>0</v>
-      </c>
-      <c r="P8" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>0</v>
-      </c>
-      <c r="R8" s="8">
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>0</v>
+      </c>
+      <c r="R8" s="7">
         <v>1.22</v>
       </c>
-      <c r="S8" s="8">
+      <c r="S8" s="7">
         <v>1.2</v>
       </c>
-      <c r="T8" s="8" t="s">
+      <c r="T8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="U8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="V8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="W8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="X8" s="8" t="s">
+      <c r="U8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="W8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="X8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Y8" s="10">
+      <c r="Y8" s="9">
         <v>43982</v>
       </c>
-      <c r="Z8" s="7" t="s">
+      <c r="Z8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AA8" s="3"/>
+      <c r="AA8" s="2"/>
     </row>
-    <row r="9" spans="1:27" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:27" ht="27">
+      <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>1</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>19.899999999999999</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>3</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>43862</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>2</v>
       </c>
-      <c r="H9" s="8">
-        <v>30</v>
-      </c>
-      <c r="I9" s="8" t="s">
+      <c r="H9" s="7">
+        <v>30</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="7">
         <v>8</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <v>8</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="M9" s="8">
-        <v>30</v>
-      </c>
-      <c r="N9" s="8">
+      <c r="M9" s="7">
+        <v>30</v>
+      </c>
+      <c r="N9" s="7">
         <v>0.2</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="7">
         <v>1</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="7">
         <v>0.8</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="7">
         <v>2</v>
       </c>
-      <c r="R9" s="8">
+      <c r="R9" s="7">
         <v>2.79</v>
       </c>
-      <c r="S9" s="8">
+      <c r="S9" s="7">
         <v>2.79</v>
       </c>
-      <c r="T9" s="8" t="s">
+      <c r="T9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="U9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="V9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="W9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="X9" s="8" t="s">
+      <c r="U9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="W9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="X9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Y9" s="10">
+      <c r="Y9" s="9">
         <v>44218</v>
       </c>
-      <c r="Z9" s="7" t="s">
+      <c r="Z9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AA9" s="3"/>
+      <c r="AA9" s="2"/>
     </row>
-    <row r="10" spans="1:27" ht="36.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:27" ht="27">
+      <c r="A10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>19.899999999999999</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>3</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>43862</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>2</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <v>8</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="7">
         <v>8</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M10" s="8">
-        <v>30</v>
-      </c>
-      <c r="N10" s="8">
+      <c r="M10" s="7">
+        <v>30</v>
+      </c>
+      <c r="N10" s="7">
         <v>0.2</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="7">
         <v>1</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="7">
         <v>0.8</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="7">
         <v>2</v>
       </c>
-      <c r="R10" s="8">
+      <c r="R10" s="7">
         <v>2.78</v>
       </c>
-      <c r="S10" s="8">
+      <c r="S10" s="7">
         <v>2.78</v>
       </c>
-      <c r="T10" s="8" t="s">
+      <c r="T10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="U10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="V10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="W10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="X10" s="8" t="s">
+      <c r="U10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="W10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="X10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Y10" s="10">
+      <c r="Y10" s="9">
         <v>44084</v>
       </c>
-      <c r="Z10" s="7" t="s">
+      <c r="Z10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AA10" s="3"/>
+      <c r="AA10" s="2"/>
     </row>
-    <row r="11" spans="1:27" ht="36.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:27" ht="27">
+      <c r="A11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>19.899999999999999</v>
       </c>
-      <c r="E11" s="8">
-        <v>0</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8">
-        <v>0</v>
-      </c>
-      <c r="K11" s="8">
-        <v>0</v>
-      </c>
-      <c r="L11" s="8" t="s">
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M11" s="8">
-        <v>30</v>
-      </c>
-      <c r="N11" s="8">
+      <c r="M11" s="7">
+        <v>30</v>
+      </c>
+      <c r="N11" s="7">
         <v>0.2</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="7">
         <v>1</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="7">
         <v>0.8</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="7">
         <v>2</v>
       </c>
-      <c r="R11" s="8">
-        <v>0</v>
-      </c>
-      <c r="S11" s="8">
-        <v>0</v>
-      </c>
-      <c r="T11" s="8" t="s">
+      <c r="R11" s="7">
+        <v>0</v>
+      </c>
+      <c r="S11" s="7">
+        <v>0</v>
+      </c>
+      <c r="T11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="U11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="V11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="W11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="X11" s="8" t="s">
+      <c r="U11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="X11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Y11" s="10">
+      <c r="Y11" s="9">
         <v>44436</v>
       </c>
-      <c r="Z11" s="7" t="s">
+      <c r="Z11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AA11" s="3"/>
+      <c r="AA11" s="2"/>
     </row>
-    <row r="12" spans="1:27" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:27" ht="27">
+      <c r="A12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>1</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>3</v>
       </c>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8">
-        <v>0</v>
-      </c>
-      <c r="K12" s="8">
-        <v>0</v>
-      </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8">
-        <v>0</v>
-      </c>
-      <c r="N12" s="8">
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
         <v>1</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="7">
         <v>5</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="7">
         <v>1</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="7">
         <v>5</v>
       </c>
-      <c r="R12" s="8">
+      <c r="R12" s="7">
         <v>0.3</v>
       </c>
-      <c r="S12" s="8">
+      <c r="S12" s="7">
         <v>0.3</v>
       </c>
-      <c r="T12" s="8" t="s">
+      <c r="T12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="U12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="V12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="W12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="X12" s="8" t="s">
+      <c r="U12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="W12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="X12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Y12" s="10">
+      <c r="Y12" s="9">
         <v>44104</v>
       </c>
-      <c r="Z12" s="7" t="s">
+      <c r="Z12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AA12" s="3"/>
+      <c r="AA12" s="2"/>
     </row>
-    <row r="13" spans="1:27" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:27" ht="27">
+      <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>1</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>9.9</v>
       </c>
-      <c r="E13" s="8">
-        <v>0</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8">
-        <v>0</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8">
-        <v>0</v>
-      </c>
-      <c r="K13" s="8">
-        <v>0</v>
-      </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8">
-        <v>0</v>
-      </c>
-      <c r="N13" s="8">
-        <v>0</v>
-      </c>
-      <c r="O13" s="8">
-        <v>0</v>
-      </c>
-      <c r="P13" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="8">
-        <v>0</v>
-      </c>
-      <c r="R13" s="8">
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="P13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>0</v>
+      </c>
+      <c r="R13" s="7">
         <v>1.22</v>
       </c>
-      <c r="S13" s="8">
+      <c r="S13" s="7">
         <v>1.22</v>
       </c>
-      <c r="T13" s="8" t="s">
+      <c r="T13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="U13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="V13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="W13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="X13" s="8" t="s">
+      <c r="U13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="W13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="X13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Y13" s="10">
+      <c r="Y13" s="9">
         <v>44192</v>
       </c>
-      <c r="Z13" s="7" t="s">
+      <c r="Z13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AA13" s="3"/>
+      <c r="AA13" s="2"/>
     </row>
-    <row r="14" spans="1:27" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:27" ht="27">
+      <c r="A14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>1</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>5.0599999999999996</v>
       </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8">
-        <v>0</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8">
-        <v>0</v>
-      </c>
-      <c r="K14" s="8">
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
         <v>3.1</v>
       </c>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8">
-        <v>0</v>
-      </c>
-      <c r="N14" s="8">
-        <v>0</v>
-      </c>
-      <c r="O14" s="8">
-        <v>0</v>
-      </c>
-      <c r="P14" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="8">
-        <v>0</v>
-      </c>
-      <c r="R14" s="8">
+      <c r="L14" s="7"/>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="P14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>0</v>
+      </c>
+      <c r="R14" s="7">
         <v>2.5</v>
       </c>
-      <c r="S14" s="8">
+      <c r="S14" s="7">
         <v>2.5</v>
       </c>
-      <c r="T14" s="8" t="s">
+      <c r="T14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="U14" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="V14" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="W14" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="X14" s="8" t="s">
+      <c r="U14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="W14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="X14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Y14" s="10">
+      <c r="Y14" s="9">
         <v>44316</v>
       </c>
-      <c r="Z14" s="7" t="s">
+      <c r="Z14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AA14" s="3"/>
+      <c r="AA14" s="2"/>
     </row>
-    <row r="15" spans="1:27" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:27" ht="27">
+      <c r="A15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>1</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>19.899999999999999</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>6</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="11">
         <v>45079</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <v>6</v>
       </c>
-      <c r="H15" s="8">
-        <v>30</v>
-      </c>
-      <c r="I15" s="8" t="s">
+      <c r="H15" s="7">
+        <v>30</v>
+      </c>
+      <c r="I15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="7">
         <v>0.4</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7">
         <v>1.04</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="7">
         <v>10</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="7">
         <v>50</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="7">
         <v>2</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="7">
         <v>15</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="7">
         <v>2</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="Q15" s="7">
         <v>15</v>
       </c>
-      <c r="R15" s="8">
+      <c r="R15" s="7">
         <v>2.78</v>
       </c>
-      <c r="S15" s="8">
+      <c r="S15" s="7">
         <v>2.78</v>
       </c>
-      <c r="T15" s="8" t="s">
+      <c r="T15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="U15" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="V15" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="W15" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="X15" s="8" t="s">
+      <c r="U15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="W15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="X15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Y15" s="10">
+      <c r="Y15" s="9">
         <v>44464</v>
       </c>
-      <c r="Z15" s="7" t="s">
+      <c r="Z15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AA15" s="3"/>
+      <c r="AA15" s="2"/>
     </row>
-    <row r="16" spans="1:27" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:27" ht="27">
+      <c r="A16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>1</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>9.9</v>
       </c>
-      <c r="E16" s="8">
-        <v>0</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8">
-        <v>0</v>
-      </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8">
-        <v>0</v>
-      </c>
-      <c r="K16" s="8">
-        <v>0</v>
-      </c>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8">
-        <v>0</v>
-      </c>
-      <c r="N16" s="8">
-        <v>0</v>
-      </c>
-      <c r="O16" s="8">
-        <v>0</v>
-      </c>
-      <c r="P16" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="8">
-        <v>0</v>
-      </c>
-      <c r="R16" s="8">
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <v>0</v>
+      </c>
+      <c r="P16" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>0</v>
+      </c>
+      <c r="R16" s="7">
         <v>1.88</v>
       </c>
-      <c r="S16" s="8">
+      <c r="S16" s="7">
         <v>1.85</v>
       </c>
-      <c r="T16" s="8" t="s">
+      <c r="T16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="U16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="V16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="W16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="X16" s="8" t="s">
+      <c r="U16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="W16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="X16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Y16" s="10">
+      <c r="Y16" s="9">
         <v>44415</v>
       </c>
-      <c r="Z16" s="7" t="s">
+      <c r="Z16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AA16" s="3"/>
+      <c r="AA16" s="2"/>
     </row>
-    <row r="17" spans="1:27" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:27" ht="27">
+      <c r="A17" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>1</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>9.9</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <v>4</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <v>45079</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <v>0.06</v>
       </c>
-      <c r="H17" s="8">
-        <v>30</v>
-      </c>
-      <c r="I17" s="8">
-        <v>30</v>
-      </c>
-      <c r="J17" s="8">
+      <c r="H17" s="7">
+        <v>30</v>
+      </c>
+      <c r="I17" s="7">
+        <v>30</v>
+      </c>
+      <c r="J17" s="7">
         <v>6.1</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="7">
         <v>8.1</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="7">
         <v>2</v>
       </c>
-      <c r="M17" s="8">
-        <v>0</v>
-      </c>
-      <c r="N17" s="8">
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
         <v>1.2</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O17" s="7">
         <v>13.8</v>
       </c>
-      <c r="P17" s="8">
+      <c r="P17" s="7">
         <v>1.2</v>
       </c>
-      <c r="Q17" s="8">
-        <v>0</v>
-      </c>
-      <c r="R17" s="8">
-        <v>0</v>
-      </c>
-      <c r="S17" s="8">
-        <v>0</v>
-      </c>
-      <c r="T17" s="8" t="s">
+      <c r="Q17" s="7">
+        <v>0</v>
+      </c>
+      <c r="R17" s="7">
+        <v>0</v>
+      </c>
+      <c r="S17" s="7">
+        <v>0</v>
+      </c>
+      <c r="T17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="U17" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="V17" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="W17" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="X17" s="8" t="s">
+      <c r="U17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="W17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="X17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Y17" s="10">
+      <c r="Y17" s="9">
         <v>44784</v>
       </c>
-      <c r="Z17" s="7" t="s">
+      <c r="Z17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AA17" s="3"/>
+      <c r="AA17" s="2"/>
     </row>
-    <row r="18" spans="1:27" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:27" ht="27">
+      <c r="A18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>1</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>16</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <v>4</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="11">
         <v>45079</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="7">
         <v>2</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="7">
         <v>20</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="7">
         <v>50</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="7">
         <v>3.2</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="7">
         <v>5.4</v>
       </c>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8">
+      <c r="L18" s="7"/>
+      <c r="M18" s="7">
         <v>2.5</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="7">
         <v>0.2</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O18" s="7">
         <v>0.2</v>
       </c>
-      <c r="P18" s="8">
+      <c r="P18" s="7">
         <v>2</v>
       </c>
-      <c r="Q18" s="8">
+      <c r="Q18" s="7">
         <v>2</v>
       </c>
-      <c r="R18" s="8">
+      <c r="R18" s="7">
         <v>0.2</v>
       </c>
-      <c r="S18" s="8">
+      <c r="S18" s="7">
         <v>0.2</v>
       </c>
-      <c r="T18" s="8" t="s">
+      <c r="T18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="U18" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="V18" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="W18" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="X18" s="8" t="s">
+      <c r="U18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="W18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="X18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Y18" s="10">
+      <c r="Y18" s="9">
         <v>44623</v>
       </c>
-      <c r="Z18" s="7" t="s">
+      <c r="Z18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AA18" s="3"/>
+      <c r="AA18" s="2"/>
     </row>
-    <row r="19" spans="1:27" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:27" ht="27">
+      <c r="A19" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>1</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>0.3</v>
       </c>
-      <c r="E19" s="8">
-        <v>0</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8">
-        <v>0</v>
-      </c>
-      <c r="H19" s="8">
-        <v>30</v>
-      </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8">
-        <v>0</v>
-      </c>
-      <c r="K19" s="8">
-        <v>0</v>
-      </c>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8">
-        <v>0</v>
-      </c>
-      <c r="N19" s="8">
-        <v>0</v>
-      </c>
-      <c r="O19" s="8">
-        <v>0</v>
-      </c>
-      <c r="P19" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="8">
-        <v>0</v>
-      </c>
-      <c r="R19" s="8">
-        <v>0</v>
-      </c>
-      <c r="S19" s="8">
-        <v>0</v>
-      </c>
-      <c r="T19" s="8" t="s">
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7">
+        <v>30</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7">
+        <v>0</v>
+      </c>
+      <c r="P19" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>0</v>
+      </c>
+      <c r="R19" s="7">
+        <v>0</v>
+      </c>
+      <c r="S19" s="7">
+        <v>0</v>
+      </c>
+      <c r="T19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="U19" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="V19" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="W19" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="X19" s="8" t="s">
+      <c r="U19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="W19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="X19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Y19" s="10">
+      <c r="Y19" s="9">
         <v>44711</v>
       </c>
-      <c r="Z19" s="7" t="s">
+      <c r="Z19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AA19" s="3"/>
+      <c r="AA19" s="2"/>
     </row>
-    <row r="20" spans="1:27" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:27" ht="27">
+      <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>1</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>4.99</v>
       </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8">
-        <v>0</v>
-      </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8">
-        <v>0</v>
-      </c>
-      <c r="K20" s="8">
-        <v>0</v>
-      </c>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8">
-        <v>0</v>
-      </c>
-      <c r="N20" s="8">
-        <v>0</v>
-      </c>
-      <c r="O20" s="8">
-        <v>0</v>
-      </c>
-      <c r="P20" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="8">
-        <v>0</v>
-      </c>
-      <c r="R20" s="8">
-        <v>0</v>
-      </c>
-      <c r="S20" s="8">
-        <v>0</v>
-      </c>
-      <c r="T20" s="8" t="s">
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7">
+        <v>0</v>
+      </c>
+      <c r="P20" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>0</v>
+      </c>
+      <c r="R20" s="7">
+        <v>0</v>
+      </c>
+      <c r="S20" s="7">
+        <v>0</v>
+      </c>
+      <c r="T20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="U20" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="V20" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="W20" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="X20" s="8" t="s">
+      <c r="U20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="W20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="X20" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Y20" s="10">
+      <c r="Y20" s="9">
         <v>44723</v>
       </c>
-      <c r="Z20" s="7" t="s">
+      <c r="Z20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AA20" s="3"/>
+      <c r="AA20" s="2"/>
     </row>
-    <row r="21" spans="1:27" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:27" ht="27">
+      <c r="A21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>1</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>9.9</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="7">
         <v>4.0199999999999996</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8">
+      <c r="F21" s="7"/>
+      <c r="G21" s="7">
         <v>19.14</v>
       </c>
-      <c r="H21" s="8">
-        <v>30</v>
-      </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8">
+      <c r="H21" s="7">
+        <v>30</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7">
         <v>4.13</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="7">
         <v>4.13</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="7">
         <v>4</v>
       </c>
-      <c r="M21" s="8">
-        <v>0</v>
-      </c>
-      <c r="N21" s="8">
+      <c r="M21" s="7">
+        <v>0</v>
+      </c>
+      <c r="N21" s="7">
         <v>0.15</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O21" s="7">
         <v>3</v>
       </c>
-      <c r="P21" s="8">
+      <c r="P21" s="7">
         <v>0.15</v>
       </c>
-      <c r="Q21" s="8">
+      <c r="Q21" s="7">
         <v>5</v>
       </c>
-      <c r="R21" s="8">
-        <v>0</v>
-      </c>
-      <c r="S21" s="8">
-        <v>0</v>
-      </c>
-      <c r="T21" s="8" t="s">
+      <c r="R21" s="7">
+        <v>0</v>
+      </c>
+      <c r="S21" s="7">
+        <v>0</v>
+      </c>
+      <c r="T21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="U21" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="V21" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="W21" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="X21" s="8" t="s">
+      <c r="U21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="W21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="X21" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Y21" s="10">
+      <c r="Y21" s="9">
         <v>44712</v>
       </c>
-      <c r="Z21" s="7" t="s">
+      <c r="Z21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AA21" s="3"/>
+      <c r="AA21" s="2"/>
     </row>
-    <row r="22" spans="1:27" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:27" ht="27">
+      <c r="A22" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <v>1</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>19.899999999999999</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="7">
         <v>5</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="11">
         <v>45079</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="7">
         <v>5</v>
       </c>
-      <c r="H22" s="8">
-        <v>30</v>
-      </c>
-      <c r="I22" s="8">
+      <c r="H22" s="7">
+        <v>30</v>
+      </c>
+      <c r="I22" s="7">
         <v>120</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="7">
         <v>6.57</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="7">
         <v>6.57</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="7">
         <v>2</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M22" s="7">
         <v>10</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N22" s="7">
         <v>1.6</v>
       </c>
-      <c r="O22" s="8">
+      <c r="O22" s="7">
         <v>7.6</v>
       </c>
-      <c r="P22" s="8">
+      <c r="P22" s="7">
         <v>1.88</v>
       </c>
-      <c r="Q22" s="8">
+      <c r="Q22" s="7">
         <v>8.6</v>
       </c>
-      <c r="R22" s="8">
+      <c r="R22" s="7">
         <v>12</v>
       </c>
-      <c r="S22" s="8">
+      <c r="S22" s="7">
         <v>12</v>
       </c>
-      <c r="T22" s="8" t="s">
+      <c r="T22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="U22" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="V22" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="W22" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="X22" s="8" t="s">
+      <c r="U22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="W22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="X22" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Y22" s="10">
+      <c r="Y22" s="9">
         <v>44816</v>
       </c>
-      <c r="Z22" s="7" t="s">
+      <c r="Z22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AA22" s="3"/>
+      <c r="AA22" s="2"/>
     </row>
-    <row r="23" spans="1:27" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:27" ht="27">
+      <c r="A23" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7">
         <v>1</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <v>17.899999999999999</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="7">
         <v>4</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="11">
         <v>45080</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="7">
         <v>6</v>
       </c>
-      <c r="H23" s="8">
-        <v>30</v>
-      </c>
-      <c r="I23" s="8">
+      <c r="H23" s="7">
+        <v>30</v>
+      </c>
+      <c r="I23" s="7">
         <v>120</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="7">
         <v>6.57</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="7">
         <v>6.57</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23" s="7">
         <v>2</v>
       </c>
-      <c r="M23" s="8">
+      <c r="M23" s="7">
         <v>10</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N23" s="7">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="O23" s="8">
+      <c r="O23" s="7">
         <v>0.3</v>
       </c>
-      <c r="P23" s="8">
+      <c r="P23" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="Q23" s="8">
+      <c r="Q23" s="7">
         <v>0.31</v>
       </c>
-      <c r="R23" s="8">
-        <v>0</v>
-      </c>
-      <c r="S23" s="8">
-        <v>0</v>
-      </c>
-      <c r="T23" s="8" t="s">
+      <c r="R23" s="7">
+        <v>0</v>
+      </c>
+      <c r="S23" s="7">
+        <v>0</v>
+      </c>
+      <c r="T23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="U23" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="V23" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="W23" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="X23" s="8" t="s">
+      <c r="U23" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V23" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="W23" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="X23" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Y23" s="10">
+      <c r="Y23" s="9">
         <v>44816</v>
       </c>
-      <c r="Z23" s="7" t="s">
+      <c r="Z23" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AA23" s="3"/>
+      <c r="AA23" s="2"/>
     </row>
-    <row r="24" spans="1:27" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:27" ht="27">
+      <c r="A24" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <v>1</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>18.5</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="7">
         <v>4</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="11">
         <v>45079</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="7">
         <v>5</v>
       </c>
-      <c r="H24" s="8">
-        <v>30</v>
-      </c>
-      <c r="I24" s="8">
+      <c r="H24" s="7">
+        <v>30</v>
+      </c>
+      <c r="I24" s="7">
         <v>120</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="7">
         <v>4.38</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="7">
         <v>6.32</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24" s="7">
         <v>2</v>
       </c>
-      <c r="M24" s="8">
-        <v>0</v>
-      </c>
-      <c r="N24" s="8">
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
         <v>2</v>
       </c>
-      <c r="O24" s="8">
+      <c r="O24" s="7">
         <v>15</v>
       </c>
-      <c r="P24" s="8">
+      <c r="P24" s="7">
         <v>2</v>
       </c>
-      <c r="Q24" s="8">
+      <c r="Q24" s="7">
         <v>10</v>
       </c>
-      <c r="R24" s="8">
+      <c r="R24" s="7">
         <v>2.78</v>
       </c>
-      <c r="S24" s="8">
+      <c r="S24" s="7">
         <v>2.78</v>
       </c>
-      <c r="T24" s="8" t="s">
+      <c r="T24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="U24" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="V24" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="W24" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="X24" s="8" t="s">
+      <c r="U24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="W24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="X24" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Y24" s="10">
+      <c r="Y24" s="9">
         <v>44814</v>
       </c>
-      <c r="Z24" s="7" t="s">
+      <c r="Z24" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AA24" s="3"/>
+      <c r="AA24" s="2"/>
     </row>
-    <row r="25" spans="1:27" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:27" ht="27">
+      <c r="A25" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <v>1</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>2.4500000000000002</v>
       </c>
-      <c r="E25" s="8">
-        <v>0</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8">
-        <v>0</v>
-      </c>
-      <c r="H25" s="8">
-        <v>30</v>
-      </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8">
-        <v>0</v>
-      </c>
-      <c r="K25" s="8">
-        <v>0</v>
-      </c>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8">
-        <v>0</v>
-      </c>
-      <c r="N25" s="8">
-        <v>0</v>
-      </c>
-      <c r="O25" s="8">
-        <v>0</v>
-      </c>
-      <c r="P25" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="8">
-        <v>0</v>
-      </c>
-      <c r="R25" s="8">
-        <v>0</v>
-      </c>
-      <c r="S25" s="8">
-        <v>0</v>
-      </c>
-      <c r="T25" s="8" t="s">
+      <c r="E25" s="7">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7">
+        <v>0</v>
+      </c>
+      <c r="H25" s="7">
+        <v>30</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7">
+        <v>0</v>
+      </c>
+      <c r="K25" s="7">
+        <v>0</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7">
+        <v>0</v>
+      </c>
+      <c r="P25" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>0</v>
+      </c>
+      <c r="R25" s="7">
+        <v>0</v>
+      </c>
+      <c r="S25" s="7">
+        <v>0</v>
+      </c>
+      <c r="T25" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="U25" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="V25" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="W25" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="X25" s="8" t="s">
+      <c r="U25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="W25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="X25" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Y25" s="10">
+      <c r="Y25" s="9">
         <v>44825</v>
       </c>
-      <c r="Z25" s="7" t="s">
+      <c r="Z25" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AA25" s="3"/>
+      <c r="AA25" s="2"/>
     </row>
-    <row r="26" spans="1:27" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:27" ht="27">
+      <c r="A26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>1</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <v>9.9</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="7">
         <v>4.0199999999999996</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="11">
         <v>45080</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="7">
         <v>19.14</v>
       </c>
-      <c r="H26" s="8">
-        <v>30</v>
-      </c>
-      <c r="I26" s="8">
+      <c r="H26" s="7">
+        <v>30</v>
+      </c>
+      <c r="I26" s="7">
         <v>120</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="7">
         <v>3.3</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="7">
         <v>3.3</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L26" s="7">
         <v>4</v>
       </c>
-      <c r="M26" s="8">
+      <c r="M26" s="7">
         <v>50</v>
       </c>
-      <c r="N26" s="8">
+      <c r="N26" s="7">
         <v>0.15</v>
       </c>
-      <c r="O26" s="8">
+      <c r="O26" s="7">
         <v>3</v>
       </c>
-      <c r="P26" s="8">
+      <c r="P26" s="7">
         <v>0.15</v>
       </c>
-      <c r="Q26" s="8">
+      <c r="Q26" s="7">
         <v>5</v>
       </c>
-      <c r="R26" s="8">
-        <v>0</v>
-      </c>
-      <c r="S26" s="8">
-        <v>0</v>
-      </c>
-      <c r="T26" s="8" t="s">
+      <c r="R26" s="7">
+        <v>0</v>
+      </c>
+      <c r="S26" s="7">
+        <v>0</v>
+      </c>
+      <c r="T26" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="U26" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="V26" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="W26" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="X26" s="8" t="s">
+      <c r="U26" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V26" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="W26" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="X26" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Y26" s="10">
+      <c r="Y26" s="9">
         <v>44819</v>
       </c>
-      <c r="Z26" s="7" t="s">
+      <c r="Z26" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AA26" s="3"/>
+      <c r="AA26" s="2"/>
     </row>
-    <row r="27" spans="1:27" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:27" ht="27">
+      <c r="A27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <v>1</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7">
         <v>9.9</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="7">
         <v>4.0199999999999996</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="11">
         <v>45080</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="7">
         <v>19.399999999999999</v>
       </c>
-      <c r="H27" s="8">
-        <v>30</v>
-      </c>
-      <c r="I27" s="8">
+      <c r="H27" s="7">
+        <v>30</v>
+      </c>
+      <c r="I27" s="7">
         <v>120</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="7">
         <v>3.3</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="7">
         <v>3.3</v>
       </c>
-      <c r="L27" s="8">
+      <c r="L27" s="7">
         <v>4</v>
       </c>
-      <c r="M27" s="8">
+      <c r="M27" s="7">
         <v>50</v>
       </c>
-      <c r="N27" s="8">
+      <c r="N27" s="7">
         <v>0.15</v>
       </c>
-      <c r="O27" s="8">
+      <c r="O27" s="7">
         <v>3</v>
       </c>
-      <c r="P27" s="8">
+      <c r="P27" s="7">
         <v>0.15</v>
       </c>
-      <c r="Q27" s="8">
+      <c r="Q27" s="7">
         <v>5</v>
       </c>
-      <c r="R27" s="8">
-        <v>0</v>
-      </c>
-      <c r="S27" s="8">
-        <v>0</v>
-      </c>
-      <c r="T27" s="8" t="s">
+      <c r="R27" s="7">
+        <v>0</v>
+      </c>
+      <c r="S27" s="7">
+        <v>0</v>
+      </c>
+      <c r="T27" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="U27" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="V27" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="W27" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="X27" s="8" t="s">
+      <c r="U27" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V27" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="W27" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="X27" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Y27" s="10">
+      <c r="Y27" s="9">
         <v>44819</v>
       </c>
-      <c r="Z27" s="7" t="s">
+      <c r="Z27" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AA27" s="3"/>
+      <c r="AA27" s="2"/>
     </row>
-    <row r="28" spans="1:27" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:27" ht="27">
+      <c r="A28" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <v>1</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="7">
         <v>9.9</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="7">
         <v>4.0199999999999996</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="11">
         <v>45080</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="7">
         <v>19.14</v>
       </c>
-      <c r="H28" s="8">
-        <v>30</v>
-      </c>
-      <c r="I28" s="8">
+      <c r="H28" s="7">
+        <v>30</v>
+      </c>
+      <c r="I28" s="7">
         <v>120</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="7">
         <v>3.3</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28" s="7">
         <v>3.3</v>
       </c>
-      <c r="L28" s="8">
+      <c r="L28" s="7">
         <v>4</v>
       </c>
-      <c r="M28" s="8">
+      <c r="M28" s="7">
         <v>50</v>
       </c>
-      <c r="N28" s="8">
+      <c r="N28" s="7">
         <v>0.15</v>
       </c>
-      <c r="O28" s="8">
+      <c r="O28" s="7">
         <v>3</v>
       </c>
-      <c r="P28" s="8">
+      <c r="P28" s="7">
         <v>0.15</v>
       </c>
-      <c r="Q28" s="8">
+      <c r="Q28" s="7">
         <v>5</v>
       </c>
-      <c r="R28" s="8">
+      <c r="R28" s="7">
         <v>9.9</v>
       </c>
-      <c r="S28" s="8">
+      <c r="S28" s="7">
         <v>9.9</v>
       </c>
-      <c r="T28" s="8" t="s">
+      <c r="T28" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="U28" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="V28" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="W28" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="X28" s="8" t="s">
+      <c r="U28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="W28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="X28" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Y28" s="10">
+      <c r="Y28" s="9">
         <v>44823</v>
       </c>
-      <c r="Z28" s="7" t="s">
+      <c r="Z28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AA28" s="3"/>
+      <c r="AA28" s="2"/>
     </row>
-    <row r="29" spans="1:27" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:27" ht="27">
+      <c r="A29" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="7">
         <v>1</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="7">
         <v>4</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="7">
         <v>6</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="11">
         <v>45079</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="7">
         <v>6</v>
       </c>
-      <c r="H29" s="8">
-        <v>30</v>
-      </c>
-      <c r="I29" s="8">
+      <c r="H29" s="7">
+        <v>30</v>
+      </c>
+      <c r="I29" s="7">
         <v>120</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J29" s="7">
         <v>1.32</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K29" s="7">
         <v>1.32</v>
       </c>
-      <c r="L29" s="8">
+      <c r="L29" s="7">
         <v>2</v>
       </c>
-      <c r="M29" s="8">
+      <c r="M29" s="7">
         <v>15</v>
       </c>
-      <c r="N29" s="8">
+      <c r="N29" s="7">
         <v>0.5</v>
       </c>
-      <c r="O29" s="8">
+      <c r="O29" s="7">
         <v>1</v>
       </c>
-      <c r="P29" s="8">
+      <c r="P29" s="7">
         <v>0.3</v>
       </c>
-      <c r="Q29" s="8">
+      <c r="Q29" s="7">
         <v>0.6</v>
       </c>
-      <c r="R29" s="8">
+      <c r="R29" s="7">
         <v>0.4</v>
       </c>
-      <c r="S29" s="8">
+      <c r="S29" s="7">
         <v>0.4</v>
       </c>
-      <c r="T29" s="8" t="s">
+      <c r="T29" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="U29" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="V29" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="W29" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="X29" s="8" t="s">
+      <c r="U29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="W29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="X29" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Y29" s="10">
+      <c r="Y29" s="9">
         <v>44921</v>
       </c>
-      <c r="Z29" s="7" t="s">
+      <c r="Z29" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AA29" s="3"/>
+      <c r="AA29" s="2"/>
     </row>
-    <row r="30" spans="1:27" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
+    <row r="30" spans="1:27" ht="27">
+      <c r="A30" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="7">
         <v>1</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="7">
         <v>9.9</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="7">
         <v>4.0199999999999996</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="11">
         <v>45079</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="7">
         <v>19.14</v>
       </c>
-      <c r="H30" s="8">
-        <v>30</v>
-      </c>
-      <c r="I30" s="8">
+      <c r="H30" s="7">
+        <v>30</v>
+      </c>
+      <c r="I30" s="7">
         <v>120</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J30" s="7">
         <v>3.3</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K30" s="7">
         <v>3.3</v>
       </c>
-      <c r="L30" s="8">
+      <c r="L30" s="7">
         <v>4</v>
       </c>
-      <c r="M30" s="8">
+      <c r="M30" s="7">
         <v>50</v>
       </c>
-      <c r="N30" s="8">
+      <c r="N30" s="7">
         <v>0.15</v>
       </c>
-      <c r="O30" s="8">
+      <c r="O30" s="7">
         <v>3</v>
       </c>
-      <c r="P30" s="8">
+      <c r="P30" s="7">
         <v>0.15</v>
       </c>
-      <c r="Q30" s="8">
+      <c r="Q30" s="7">
         <v>5</v>
       </c>
-      <c r="R30" s="8">
-        <v>0</v>
-      </c>
-      <c r="S30" s="8">
-        <v>0</v>
-      </c>
-      <c r="T30" s="8" t="s">
+      <c r="R30" s="7">
+        <v>0</v>
+      </c>
+      <c r="S30" s="7">
+        <v>0</v>
+      </c>
+      <c r="T30" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="U30" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="V30" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="W30" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="X30" s="8" t="s">
+      <c r="U30" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V30" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="W30" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="X30" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Y30" s="10">
+      <c r="Y30" s="9">
         <v>44916</v>
       </c>
-      <c r="Z30" s="7" t="s">
+      <c r="Z30" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AA30" s="3"/>
+      <c r="AA30" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="U6" r:id="rId1" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_AUTOGCELSIASOLARYUMBO_CCON060.xls"/>
-    <hyperlink ref="V6" r:id="rId2" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_AUTOGCELSIASOLARYUMBO_CCAP060.xls"/>
-    <hyperlink ref="W6" r:id="rId3" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_AUTOGCELSIASOLARYUMBO_RMS060.pdf"/>
-    <hyperlink ref="U7" r:id="rId4" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_CELSIASOLARBOLIVAR_CCON060.xls"/>
-    <hyperlink ref="V7" r:id="rId5" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_CELSIASOLARBOLIVAR_CCAP060.xls"/>
-    <hyperlink ref="W7" r:id="rId6" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_CELSIASOLARBOLIVAR_RMS060.pdf"/>
-    <hyperlink ref="U8" r:id="rId7" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_CELSIASOLARESPINAL_CCON060.xls"/>
-    <hyperlink ref="V8" r:id="rId8" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_CELSIASOLARESPINAL_CCAP060.xls"/>
-    <hyperlink ref="W8" r:id="rId9" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_CELSIASOLARESPINAL_RMS060.pdf"/>
-    <hyperlink ref="U9" r:id="rId10" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_TRINA-VATIABSLII_CCON060.xls"/>
-    <hyperlink ref="V9" r:id="rId11" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_TRINA-VATIABSLII_CCAP060.xls"/>
-    <hyperlink ref="W9" r:id="rId12" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_TRINA-VATIABSLII_RMS060.pdf"/>
-    <hyperlink ref="U10" r:id="rId13" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_TRINA-VATIABSLI_CCON060.xls"/>
-    <hyperlink ref="V10" r:id="rId14" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_TRINA-VATIABSLI_CCAP060.xls"/>
-    <hyperlink ref="W10" r:id="rId15" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_TRINA-VATIABSLI_RMS060.pdf"/>
-    <hyperlink ref="U11" r:id="rId16" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_TRINA-VATIABSLIII_CCON060.xls"/>
-    <hyperlink ref="V11" r:id="rId17" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_TRINA-VATIABSLIII_CCAP060.xls"/>
-    <hyperlink ref="W11" r:id="rId18" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_TRINA-VATIABSLIII_RMS060.pdf"/>
-    <hyperlink ref="U12" r:id="rId19" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_PLANTASOLARBAYUNCAI_CCON060.xls"/>
-    <hyperlink ref="V12" r:id="rId20" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_PLANTASOLARBAYUNCAI_CCAP060.xls"/>
-    <hyperlink ref="W12" r:id="rId21" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_PLANTASOLARBAYUNCAI_RMS060.pdf"/>
-    <hyperlink ref="U13" r:id="rId22" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_CELSIASOLARCARMELO_CCON060.xls"/>
-    <hyperlink ref="V13" r:id="rId23" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_CELSIASOLARCARMELO_CCAP060.xls"/>
-    <hyperlink ref="W13" r:id="rId24" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_CELSIASOLARCARMELO_RMS060.pdf"/>
-    <hyperlink ref="U14" r:id="rId25" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_GRANJASOLARBELMONTE_CCON060.xls"/>
-    <hyperlink ref="V14" r:id="rId26" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_GRANJASOLARBELMONTE_CCAP060.xls"/>
-    <hyperlink ref="W14" r:id="rId27" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_GRANJASOLARBELMONTE_RMS060.pdf"/>
-    <hyperlink ref="U15" r:id="rId28" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_LASIERPE_CCON060.xls"/>
-    <hyperlink ref="V15" r:id="rId29" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_LASIERPE_CCAP060.xls"/>
-    <hyperlink ref="W15" r:id="rId30" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_LASIERPE_RMS060.pdf"/>
-    <hyperlink ref="U16" r:id="rId31" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_CELSIASOLARLAPAILA_CCON060.xls"/>
-    <hyperlink ref="V16" r:id="rId32" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_CELSIASOLARLAPAILA_CCAP060.xls"/>
-    <hyperlink ref="W16" r:id="rId33" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_CELSIASOLARLAPAILA_RMS060.pdf"/>
-    <hyperlink ref="U17" r:id="rId34" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_PETALODECORDOBAI_CCON060.xls"/>
-    <hyperlink ref="V17" r:id="rId35" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_PETALODECORDOBAI_CCAP060.xls"/>
-    <hyperlink ref="W17" r:id="rId36" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_PETALODECORDOBAI_RMS060.pdf"/>
-    <hyperlink ref="U18" r:id="rId37" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_HELIOSI_CCON060.xls"/>
-    <hyperlink ref="V18" r:id="rId38" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_HELIOSI_CCAP060.xls"/>
-    <hyperlink ref="W18" r:id="rId39" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_HELIOSI_RMS060.pdf"/>
-    <hyperlink ref="U19" r:id="rId40" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_AUTOGCOLOMBINADELCAUCA_CCON060.xls"/>
-    <hyperlink ref="V19" r:id="rId41" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_AUTOGCOLOMBINADELCAUCA_CCAP060.xls"/>
-    <hyperlink ref="W19" r:id="rId42" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_AUTOGCOLOMBINADELCAUCA_RMS060.pdf"/>
-    <hyperlink ref="U20" r:id="rId43" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_AUTOGCELSIASOLARLEVAPAN_CCON060.xls"/>
-    <hyperlink ref="V20" r:id="rId44" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_AUTOGCELSIASOLARLEVAPAN_CCAP060.xls"/>
-    <hyperlink ref="W20" r:id="rId45" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_AUTOGCELSIASOLARLEVAPAN_RMS060.pdf"/>
-    <hyperlink ref="U21" r:id="rId46" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_GRPARQUESOLARTUCANES_CCON060.xls"/>
-    <hyperlink ref="V21" r:id="rId47" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_GRPARQUESOLARTUCANES_CCAP060.xls"/>
-    <hyperlink ref="W21" r:id="rId48" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_GRPARQUESOLARTUCANES_RMS060.pdf"/>
-    <hyperlink ref="U22" r:id="rId49" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_BOSQUESSOLARESDELOSLLANOS4_CCON060.xls"/>
-    <hyperlink ref="V22" r:id="rId50" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_BOSQUESSOLARESDELOSLLANOS4_CCAP060.xls"/>
-    <hyperlink ref="W22" r:id="rId51" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_BOSQUESSOLARESDELOSLLANOS4_RMS060.pdf"/>
-    <hyperlink ref="U23" r:id="rId52" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_BOSQUESSOLARESDELOSLLANOS5_CCON060.xls"/>
-    <hyperlink ref="V23" r:id="rId53" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_BOSQUESSOLARESDELOSLLANOS5_CCAP060.xls"/>
-    <hyperlink ref="W23" r:id="rId54" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_BOSQUESSOLARESDELOSLLANOS5_RMS060.pdf"/>
-    <hyperlink ref="U24" r:id="rId55" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_SINCE_CCON060.xls"/>
-    <hyperlink ref="V24" r:id="rId56" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_SINCE_CCAP060.xls"/>
-    <hyperlink ref="W24" r:id="rId57" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_SINCE_RMS060.pdf"/>
-    <hyperlink ref="U25" r:id="rId58" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_AUTOGCELSIASOLARHARINAS_CCON060.xls"/>
-    <hyperlink ref="V25" r:id="rId59" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_AUTOGCELSIASOLARHARINAS_CCAP060.xls"/>
-    <hyperlink ref="W25" r:id="rId60" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_AUTOGCELSIASOLARHARINAS_RMS060.pdf"/>
-    <hyperlink ref="U26" r:id="rId61" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_LAMEDINA_CCON060.xls"/>
-    <hyperlink ref="V26" r:id="rId62" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_LAMEDINA_CCAP060.xls"/>
-    <hyperlink ref="W26" r:id="rId63" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_LAMEDINA_RMS060.pdf"/>
-    <hyperlink ref="U27" r:id="rId64" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_LOSCABALLEROS_CCON060.xls"/>
-    <hyperlink ref="V27" r:id="rId65" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_LOSCABALLEROS_CCAP060.xls"/>
-    <hyperlink ref="W27" r:id="rId66" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_LOSCABALLEROS_RMS060.pdf"/>
-    <hyperlink ref="U28" r:id="rId67" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_CERRITOS_CCON060.xls"/>
-    <hyperlink ref="V28" r:id="rId68" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_CERRITOS_CCAP060.xls"/>
-    <hyperlink ref="W28" r:id="rId69" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_CERRITOS_RMS060.pdf"/>
-    <hyperlink ref="U29" r:id="rId70" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_TERMOTASAJERODOSSOLAR_CCON060.xls"/>
-    <hyperlink ref="V29" r:id="rId71" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_TERMOTASAJERODOSSOLAR_CCAP060.xls"/>
-    <hyperlink ref="W29" r:id="rId72" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_TERMOTASAJERODOSSOLAR_RMS060.pdf"/>
-    <hyperlink ref="U30" r:id="rId73" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_MONTELIBANO_CCON060.xls"/>
-    <hyperlink ref="V30" r:id="rId74" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_MONTELIBANO_CCAP060.xls"/>
-    <hyperlink ref="W30" r:id="rId75" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_MONTELIBANO_RMS060.pdf"/>
+    <hyperlink ref="U6" r:id="rId1" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_AUTOGCELSIASOLARYUMBO_CCON060.xls" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="V6" r:id="rId2" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_AUTOGCELSIASOLARYUMBO_CCAP060.xls" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="W6" r:id="rId3" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_AUTOGCELSIASOLARYUMBO_RMS060.pdf" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="U7" r:id="rId4" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_CELSIASOLARBOLIVAR_CCON060.xls" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="V7" r:id="rId5" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_CELSIASOLARBOLIVAR_CCAP060.xls" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="W7" r:id="rId6" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_CELSIASOLARBOLIVAR_RMS060.pdf" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="U8" r:id="rId7" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_CELSIASOLARESPINAL_CCON060.xls" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="V8" r:id="rId8" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_CELSIASOLARESPINAL_CCAP060.xls" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="W8" r:id="rId9" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_CELSIASOLARESPINAL_RMS060.pdf" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="U9" r:id="rId10" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_TRINA-VATIABSLII_CCON060.xls" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="V9" r:id="rId11" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_TRINA-VATIABSLII_CCAP060.xls" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="W9" r:id="rId12" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_TRINA-VATIABSLII_RMS060.pdf" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="U10" r:id="rId13" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_TRINA-VATIABSLI_CCON060.xls" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="V10" r:id="rId14" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_TRINA-VATIABSLI_CCAP060.xls" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="W10" r:id="rId15" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_TRINA-VATIABSLI_RMS060.pdf" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="U11" r:id="rId16" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_TRINA-VATIABSLIII_CCON060.xls" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="V11" r:id="rId17" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_TRINA-VATIABSLIII_CCAP060.xls" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="W11" r:id="rId18" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_TRINA-VATIABSLIII_RMS060.pdf" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="U12" r:id="rId19" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_PLANTASOLARBAYUNCAI_CCON060.xls" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="V12" r:id="rId20" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_PLANTASOLARBAYUNCAI_CCAP060.xls" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="W12" r:id="rId21" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_PLANTASOLARBAYUNCAI_RMS060.pdf" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="U13" r:id="rId22" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_CELSIASOLARCARMELO_CCON060.xls" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="V13" r:id="rId23" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_CELSIASOLARCARMELO_CCAP060.xls" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="W13" r:id="rId24" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_CELSIASOLARCARMELO_RMS060.pdf" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="U14" r:id="rId25" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_GRANJASOLARBELMONTE_CCON060.xls" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="V14" r:id="rId26" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_GRANJASOLARBELMONTE_CCAP060.xls" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="W14" r:id="rId27" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_GRANJASOLARBELMONTE_RMS060.pdf" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="U15" r:id="rId28" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_LASIERPE_CCON060.xls" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="V15" r:id="rId29" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_LASIERPE_CCAP060.xls" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="W15" r:id="rId30" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_LASIERPE_RMS060.pdf" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="U16" r:id="rId31" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_CELSIASOLARLAPAILA_CCON060.xls" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="V16" r:id="rId32" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_CELSIASOLARLAPAILA_CCAP060.xls" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="W16" r:id="rId33" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_CELSIASOLARLAPAILA_RMS060.pdf" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="U17" r:id="rId34" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_PETALODECORDOBAI_CCON060.xls" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="V17" r:id="rId35" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_PETALODECORDOBAI_CCAP060.xls" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="W17" r:id="rId36" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_PETALODECORDOBAI_RMS060.pdf" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="U18" r:id="rId37" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_HELIOSI_CCON060.xls" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="V18" r:id="rId38" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_HELIOSI_CCAP060.xls" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="W18" r:id="rId39" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_HELIOSI_RMS060.pdf" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="U19" r:id="rId40" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_AUTOGCOLOMBINADELCAUCA_CCON060.xls" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="V19" r:id="rId41" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_AUTOGCOLOMBINADELCAUCA_CCAP060.xls" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="W19" r:id="rId42" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_AUTOGCOLOMBINADELCAUCA_RMS060.pdf" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="U20" r:id="rId43" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_AUTOGCELSIASOLARLEVAPAN_CCON060.xls" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="V20" r:id="rId44" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_AUTOGCELSIASOLARLEVAPAN_CCAP060.xls" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="W20" r:id="rId45" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_AUTOGCELSIASOLARLEVAPAN_RMS060.pdf" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="U21" r:id="rId46" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_GRPARQUESOLARTUCANES_CCON060.xls" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="V21" r:id="rId47" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_GRPARQUESOLARTUCANES_CCAP060.xls" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="W21" r:id="rId48" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_GRPARQUESOLARTUCANES_RMS060.pdf" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="U22" r:id="rId49" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_BOSQUESSOLARESDELOSLLANOS4_CCON060.xls" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="V22" r:id="rId50" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_BOSQUESSOLARESDELOSLLANOS4_CCAP060.xls" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="W22" r:id="rId51" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_BOSQUESSOLARESDELOSLLANOS4_RMS060.pdf" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="U23" r:id="rId52" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_BOSQUESSOLARESDELOSLLANOS5_CCON060.xls" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="V23" r:id="rId53" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_BOSQUESSOLARESDELOSLLANOS5_CCAP060.xls" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="W23" r:id="rId54" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_BOSQUESSOLARESDELOSLLANOS5_RMS060.pdf" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="U24" r:id="rId55" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_SINCE_CCON060.xls" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="V24" r:id="rId56" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_SINCE_CCAP060.xls" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="W24" r:id="rId57" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_SINCE_RMS060.pdf" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="U25" r:id="rId58" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_AUTOGCELSIASOLARHARINAS_CCON060.xls" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="V25" r:id="rId59" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_AUTOGCELSIASOLARHARINAS_CCAP060.xls" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="W25" r:id="rId60" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_AUTOGCELSIASOLARHARINAS_RMS060.pdf" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="U26" r:id="rId61" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_LAMEDINA_CCON060.xls" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="V26" r:id="rId62" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_LAMEDINA_CCAP060.xls" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="W26" r:id="rId63" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_LAMEDINA_RMS060.pdf" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="U27" r:id="rId64" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_LOSCABALLEROS_CCON060.xls" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="V27" r:id="rId65" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_LOSCABALLEROS_CCAP060.xls" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="W27" r:id="rId66" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_LOSCABALLEROS_RMS060.pdf" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="U28" r:id="rId67" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_CERRITOS_CCON060.xls" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="V28" r:id="rId68" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_CERRITOS_CCAP060.xls" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="W28" r:id="rId69" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_CERRITOS_RMS060.pdf" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="U29" r:id="rId70" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_TERMOTASAJERODOSSOLAR_CCON060.xls" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="V29" r:id="rId71" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_TERMOTASAJERODOSSOLAR_CCAP060.xls" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="W29" r:id="rId72" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_TERMOTASAJERODOSSOLAR_RMS060.pdf" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="U30" r:id="rId73" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_MONTELIBANO_CCON060.xls" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="V30" r:id="rId74" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_MONTELIBANO_CCAP060.xls" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="W30" r:id="rId75" display="http://paratec.xm.com.co/paratec/paratec_excel/SOL_MONTELIBANO_RMS060.pdf" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A4C92F77D51DB34BB66DB547BA261888" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="036d0ed6745d5cb6fc93e88a90c24f29">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3901be2b-e0aa-425f-8ecd-05b022f3c304" xmlns:ns3="1d72c402-e5ab-4c37-8652-a8939ba1b122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b8e2230f21ddac050465166b7244a911" ns2:_="" ns3:_="">
     <xsd:import namespace="3901be2b-e0aa-425f-8ecd-05b022f3c304"/>
@@ -3505,29 +3520,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D045D58B-26D0-4335-B242-8F31DEDD88E9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B3216B9-2482-42CC-824C-2C6C9B0E4BDD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99BE90D6-CFE2-41D5-A15F-7D68A334BC8D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99BE90D6-CFE2-41D5-A15F-7D68A334BC8D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B3216B9-2482-42CC-824C-2C6C9B0E4BDD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D045D58B-26D0-4335-B242-8F31DEDD88E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3901be2b-e0aa-425f-8ecd-05b022f3c304"/>
+    <ds:schemaRef ds:uri="1d72c402-e5ab-4c37-8652-a8939ba1b122"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>